--- a/pre_cri/base_real_confrontantes.xlsx
+++ b/pre_cri/base_real_confrontantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/481e8b25b6218866/python/python_projects/cri/pre_cri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{CDD353A0-79A4-4B80-BC5F-DFBB791AEC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F988BA4B-7AE5-4F6A-B769-0E8C9DEF1D3F}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{CDD353A0-79A4-4B80-BC5F-DFBB791AEC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A537294-0162-4FB8-9669-DDC6C6D7484A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30570" yWindow="540" windowWidth="29010" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="1" r:id="rId1"/>
@@ -8634,7 +8634,7 @@
   <dimension ref="A1:J1099"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E1" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8642,8 +8642,8 @@
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="17" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="78.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="82.5703125" style="7" bestFit="1" customWidth="1"/>
@@ -14172,7 +14172,7 @@
         <v>10</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="G173" s="12" t="s">
         <v>1306</v>
@@ -14204,7 +14204,7 @@
         <v>10</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="G174" s="12" t="s">
         <v>1407</v>
